--- a/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/Docs/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C72AAD-0AB0-4A27-9353-60C195081D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA6AF7-AE11-494F-A2EC-965AB07DAB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -197,9 +197,6 @@
     <t xml:space="preserve">1. La proiectarea TCs se consideră o metodă care poate avea următoarea semnătură: </t>
   </si>
   <si>
-    <t>addMovie(String title, String director, int year, List&lt;String&gt; actors, String category, List&lt;String&gt; keywords): void</t>
-  </si>
-  <si>
     <t>2. Metoda este definită la nivelul repository, service sau ui.</t>
   </si>
   <si>
@@ -673,12 +670,143 @@
   <si>
     <t>Suciu Sergiu-Eduard</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>addInhousePart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(String name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, double </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>inStock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, int  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">partDynamicValue) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">throws </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Exception </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,12 +947,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -842,6 +964,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFFC66D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1314,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1396,24 +1536,23 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1424,6 +1563,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,6 +1579,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1475,55 +1654,31 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1541,26 +1696,80 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,77 +1801,9 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1972,11 +2113,11 @@
   </sheetPr>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="22.5546875" customWidth="1"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
@@ -1985,27 +2126,27 @@
     <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10">
       <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
       <c r="F1" s="50"/>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="2:10">
       <c r="H2" s="51" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="51"/>
       <c r="J2" s="51"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10">
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2014,69 +2155,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10">
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="2">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10">
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="127" t="s">
-        <v>131</v>
+      <c r="I5" s="46" t="s">
+        <v>130</v>
       </c>
       <c r="J5" s="2">
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10">
       <c r="B6" s="23"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-    </row>
-    <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="35" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="14.4" customHeight="1"/>
+    <row r="8" spans="2:10">
+      <c r="B8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="126"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2084,7 +2221,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2092,7 +2229,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2100,34 +2237,34 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="1:15">
+      <c r="B18" s="34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C20" s="33" t="s">
+    <row r="20" spans="1:15">
+      <c r="C20" s="126" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="1:15">
+      <c r="B22" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2142,9 +2279,9 @@
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2159,10 +2296,10 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+    <row r="24" spans="1:15" ht="14.4" customHeight="1">
+      <c r="A24" s="33"/>
       <c r="B24" s="47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -2177,8 +2314,8 @@
       <c r="M24" s="47"/>
       <c r="N24" s="47"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C26" s="36"/>
+    <row r="26" spans="1:15">
+      <c r="C26" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2198,11 +2335,11 @@
   </sheetPr>
   <dimension ref="B1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
@@ -2219,7 +2356,7 @@
     <col min="17" max="17" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2227,124 +2364,124 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="58" t="s">
+    <row r="3" spans="2:17">
+      <c r="B3" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="G5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="G5" s="59" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="60" t="s">
+      <c r="H6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="I6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="72"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q6" s="63"/>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>75</v>
+      <c r="C7" s="65" t="s">
+        <v>74</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="71"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="62"/>
       <c r="I7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="L7" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="N7" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="68" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" s="69"/>
-      <c r="P7" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="69"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O7" s="60"/>
+      <c r="P7" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="60"/>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" s="4">
         <v>2</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="39">
+        <v>75</v>
+      </c>
+      <c r="G8" s="38">
         <v>1</v>
       </c>
       <c r="H8" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="J8" s="22">
         <v>2</v>
@@ -2358,36 +2495,36 @@
       <c r="M8" s="22">
         <v>4</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="53">
         <v>6</v>
       </c>
-      <c r="O8" s="67" t="s">
+      <c r="O8" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="67"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="54"/>
+    </row>
+    <row r="9" spans="2:17">
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>77</v>
+      <c r="C9" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="10">
         <v>2</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J9" s="22">
         <v>2</v>
@@ -2401,40 +2538,40 @@
       <c r="M9" s="22">
         <v>4</v>
       </c>
-      <c r="N9" s="66">
+      <c r="N9" s="53">
         <v>6</v>
       </c>
-      <c r="O9" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" s="65"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O9" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="58"/>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="40" t="s">
-        <v>91</v>
+      <c r="H10" s="39" t="s">
+        <v>90</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="22">
         <v>2</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" s="22">
         <v>3</v>
@@ -2442,31 +2579,31 @@
       <c r="M10" s="22">
         <v>4</v>
       </c>
-      <c r="N10" s="66">
+      <c r="N10" s="53">
         <v>6</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q10" s="65"/>
-    </row>
-    <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="54"/>
+      <c r="P10" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="58"/>
+    </row>
+    <row r="11" spans="2:17" ht="15" customHeight="1">
       <c r="B11" s="4">
         <v>5</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="4"/>
       <c r="G11" s="10">
         <v>4</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I11" s="22">
         <v>123</v>
@@ -2483,25 +2620,25 @@
       <c r="M11" s="22">
         <v>4</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="53">
         <v>6</v>
       </c>
-      <c r="O11" s="67"/>
-      <c r="P11" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="65"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O11" s="54"/>
+      <c r="P11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" s="4">
         <v>6</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="39">
+        <v>80</v>
+      </c>
+      <c r="G12" s="38">
         <v>5</v>
       </c>
       <c r="H12" s="22"/>
@@ -2512,17 +2649,17 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="67"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="4">
         <v>7</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="39">
+      <c r="G13" s="38">
         <v>6</v>
       </c>
       <c r="H13" s="22"/>
@@ -2531,19 +2668,19 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="67"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" s="4">
         <v>8</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>7</v>
       </c>
       <c r="H14" s="22"/>
@@ -2552,21 +2689,21 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N14" s="75"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>34</v>
+      <c r="C15" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>8</v>
       </c>
       <c r="H15" s="22"/>
@@ -2575,76 +2712,76 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="67"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N15" s="53"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" s="4">
         <v>10</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="G16" s="39"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="67"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="53"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" s="4">
         <v>11</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>34</v>
+      <c r="C17" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="G17" s="39"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="67"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="53"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" s="4">
         <v>12</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="G18" s="39"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N18" s="53"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" s="4">
         <v>13</v>
       </c>
-      <c r="C19" s="52" t="s">
-        <v>34</v>
+      <c r="C19" s="65" t="s">
+        <v>33</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -2655,53 +2792,28 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="65"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="58"/>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" s="4">
         <v>14</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17">
       <c r="D22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+        <v>37</v>
+      </c>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="I6:O6"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C7:C8"/>
@@ -2718,6 +2830,31 @@
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2730,11 +2867,11 @@
   </sheetPr>
   <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I28" sqref="I28:M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
@@ -2754,7 +2891,7 @@
     <col min="18" max="18" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -2762,116 +2899,116 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="2:18">
+      <c r="B3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="89" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="3"/>
-      <c r="G5" s="59" t="s">
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+    </row>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1">
+      <c r="B6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-    </row>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="77" t="s">
+      <c r="H6" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="I6" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="77" t="s">
+      <c r="J6" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="K6" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="79"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="66">
+        <v>1</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="90" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="90" t="s">
-        <v>30</v>
-      </c>
-      <c r="R6" s="91"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="53">
-        <v>1</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="R7" s="92"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="86"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q7" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="R7" s="87"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="G8" s="10">
         <v>1</v>
@@ -2882,7 +3019,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="22">
         <v>2</v>
@@ -2899,29 +3036,29 @@
       <c r="P8" s="22">
         <v>6</v>
       </c>
-      <c r="Q8" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="67"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="81"/>
-      <c r="C9" s="83"/>
+      <c r="Q8" s="53" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="54"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="86"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="39">
+        <v>100</v>
+      </c>
+      <c r="G9" s="38">
         <v>2</v>
       </c>
       <c r="H9" s="9">
         <v>2</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L9" s="22">
         <v>2</v>
@@ -2935,21 +3072,21 @@
       <c r="O9" s="22">
         <v>4</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="43">
         <v>6</v>
       </c>
-      <c r="Q9" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="67"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="83"/>
+      <c r="Q9" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="54"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="86"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G10" s="39">
+        <v>99</v>
+      </c>
+      <c r="G10" s="38">
         <v>3</v>
       </c>
       <c r="H10" s="9">
@@ -2958,7 +3095,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" s="22">
         <v>2</v>
@@ -2975,18 +3112,18 @@
       <c r="P10" s="22">
         <v>6</v>
       </c>
-      <c r="Q10" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="67"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="81"/>
-      <c r="C11" s="83"/>
+      <c r="Q10" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="54"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="86"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="39">
+        <v>101</v>
+      </c>
+      <c r="G11" s="38">
         <v>4</v>
       </c>
       <c r="H11" s="9">
@@ -2995,7 +3132,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L11" s="22">
         <v>2</v>
@@ -3012,29 +3149,29 @@
       <c r="P11" s="22">
         <v>6</v>
       </c>
-      <c r="Q11" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="67"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="84"/>
+      <c r="Q11" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="54"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="67"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="39">
+        <v>49</v>
+      </c>
+      <c r="G12" s="38">
         <v>5</v>
       </c>
       <c r="H12" s="9">
         <v>5</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="22">
         <v>2</v>
@@ -3051,20 +3188,20 @@
       <c r="P12" s="22">
         <v>6</v>
       </c>
-      <c r="Q12" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="67"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="53">
+      <c r="Q12" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" s="54"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="66">
         <v>2</v>
       </c>
-      <c r="C13" s="53" t="s">
-        <v>97</v>
+      <c r="C13" s="66" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="10">
         <v>6</v>
@@ -3074,10 +3211,10 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="22">
         <v>2</v>
@@ -3094,16 +3231,16 @@
       <c r="P13" s="22">
         <v>6</v>
       </c>
-      <c r="Q13" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="67"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
+      <c r="Q13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="54"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G14" s="10">
         <v>7</v>
@@ -3112,11 +3249,11 @@
         <v>7</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="22">
         <v>2</v>
@@ -3133,18 +3270,18 @@
       <c r="P14" s="22">
         <v>6</v>
       </c>
-      <c r="Q14" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="R14" s="67"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
+      <c r="Q14" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="R14" s="54"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
       <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="39">
+        <v>104</v>
+      </c>
+      <c r="G15" s="38">
         <v>8</v>
       </c>
       <c r="H15" s="9">
@@ -3153,7 +3290,7 @@
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L15" s="22">
         <v>2</v>
@@ -3170,18 +3307,18 @@
       <c r="P15" s="22">
         <v>6</v>
       </c>
-      <c r="Q15" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="67"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
+      <c r="Q15" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="54"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
       <c r="D16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="39">
+        <v>105</v>
+      </c>
+      <c r="G16" s="38">
         <v>9</v>
       </c>
       <c r="H16" s="9">
@@ -3190,7 +3327,7 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="22">
         <v>2</v>
@@ -3207,27 +3344,27 @@
       <c r="P16" s="22">
         <v>6</v>
       </c>
-      <c r="Q16" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="67"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
+      <c r="Q16" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" s="54"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
       <c r="D17" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="39">
+        <v>106</v>
+      </c>
+      <c r="G17" s="38">
         <v>10</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="40">
         <v>10</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" s="22">
         <v>2</v>
@@ -3244,18 +3381,18 @@
       <c r="P17" s="22">
         <v>6</v>
       </c>
-      <c r="Q17" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="67"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="Q17" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="54"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
       <c r="D18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G18" s="39">
+        <v>107</v>
+      </c>
+      <c r="G18" s="38">
         <v>11</v>
       </c>
       <c r="H18" s="9">
@@ -3264,7 +3401,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="22">
         <v>2</v>
@@ -3281,16 +3418,16 @@
       <c r="P18" s="22">
         <v>6</v>
       </c>
-      <c r="Q18" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="67"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="53">
+      <c r="Q18" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="54"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="66">
         <v>3</v>
       </c>
-      <c r="C19" s="82"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="2"/>
       <c r="G19" s="10">
         <v>12</v>
@@ -3301,7 +3438,7 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L19" s="22">
         <v>2</v>
@@ -3318,16 +3455,16 @@
       <c r="P19" s="22">
         <v>6</v>
       </c>
-      <c r="Q19" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="R19" s="67"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="81"/>
-      <c r="C20" s="83"/>
+      <c r="Q19" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="54"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="86"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="2"/>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>13</v>
       </c>
       <c r="H20" s="9"/>
@@ -3339,14 +3476,14 @@
       <c r="N20" s="22"/>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="67"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="81"/>
-      <c r="C21" s="83"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="54"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="86"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="2"/>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>14</v>
       </c>
       <c r="H21" s="9"/>
@@ -3358,14 +3495,14 @@
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="67"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="81"/>
-      <c r="C22" s="83"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="54"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="86"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="2"/>
-      <c r="G22" s="39">
+      <c r="G22" s="38">
         <v>15</v>
       </c>
       <c r="H22" s="9"/>
@@ -3377,14 +3514,14 @@
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="67"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="81"/>
-      <c r="C23" s="83"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="54"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="86"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="2"/>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <v>16</v>
       </c>
       <c r="H23" s="9"/>
@@ -3396,14 +3533,14 @@
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="67"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="84"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="54"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="67"/>
+      <c r="C24" s="89"/>
       <c r="D24" s="2"/>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <v>17</v>
       </c>
       <c r="H24" s="9"/>
@@ -3415,20 +3552,20 @@
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="53">
+      <c r="Q24" s="53"/>
+      <c r="R24" s="54"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="66">
         <v>4</v>
       </c>
-      <c r="C25" s="82" t="s">
-        <v>34</v>
+      <c r="C25" s="87" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="39">
+        <v>33</v>
+      </c>
+      <c r="G25" s="38">
         <v>18</v>
       </c>
       <c r="H25" s="9"/>
@@ -3440,80 +3577,88 @@
       <c r="N25" s="22"/>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
-      <c r="C26" s="83"/>
+      <c r="Q25" s="53"/>
+      <c r="R25" s="54"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="86"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="81"/>
-      <c r="C27" s="83"/>
+        <v>33</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="86"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="81"/>
-      <c r="C28" s="83"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="86"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
+        <v>33</v>
+      </c>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
       <c r="N28" s="29"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="83"/>
+    <row r="29" spans="2:18">
+      <c r="B29" s="86"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
+        <v>33</v>
+      </c>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="30"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="54"/>
-      <c r="C30" s="84"/>
+    <row r="30" spans="2:18">
+      <c r="B30" s="67"/>
+      <c r="C30" s="89"/>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K6:P6"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="I29:M29"/>
+    <mergeCell ref="G5:R5"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="B5:D5"/>
@@ -3530,22 +3675,14 @@
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="I29:M29"/>
-    <mergeCell ref="G5:R5"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="K6:P6"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3560,11 +3697,11 @@
   </sheetPr>
   <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
@@ -3576,7 +3713,7 @@
     <col min="14" max="14" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14">
       <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
@@ -3584,206 +3721,206 @@
       <c r="D1" s="49"/>
       <c r="E1" s="50"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="125"/>
+      <c r="N3" s="125"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="60" t="s">
+      <c r="C4" s="123" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="105" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="E4" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="63"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1">
+      <c r="B5" s="104"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="116" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="117"/>
+      <c r="M5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="72"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="106"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:14" ht="15" thickTop="1">
       <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="104" t="s">
+      <c r="C6" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="46">
+      <c r="E6" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="45">
         <v>2</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>100</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <v>3</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="45">
         <v>4</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="118">
         <v>6</v>
       </c>
-      <c r="L6" s="96" t="s">
+      <c r="L6" s="119" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N6" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" s="7">
         <f>B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="45">
+        <v>34</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="44">
         <v>2</v>
       </c>
-      <c r="H7" s="45">
+      <c r="H7" s="44">
         <v>-100</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>3</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="44">
         <v>4</v>
       </c>
-      <c r="K7" s="97">
+      <c r="K7" s="120">
         <v>6</v>
       </c>
-      <c r="L7" s="98"/>
-      <c r="M7" s="45" t="s">
-        <v>122</v>
+      <c r="L7" s="121"/>
+      <c r="M7" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14">
       <c r="B8" s="7">
         <f t="shared" ref="B8:B13" si="0">B7+1</f>
         <v>3</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="45">
+        <v>34</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="44">
         <v>2</v>
       </c>
-      <c r="H8" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="45">
+      <c r="H8" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="44">
         <v>3</v>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="44">
         <v>4</v>
       </c>
-      <c r="K8" s="97">
+      <c r="K8" s="120">
         <v>6</v>
       </c>
-      <c r="L8" s="98"/>
-      <c r="M8" s="45" t="s">
-        <v>123</v>
+      <c r="L8" s="121"/>
+      <c r="M8" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12">
@@ -3801,145 +3938,145 @@
       <c r="J9" s="12">
         <v>4</v>
       </c>
-      <c r="K9" s="68">
+      <c r="K9" s="59">
         <v>6</v>
       </c>
-      <c r="L9" s="69"/>
+      <c r="L9" s="60"/>
       <c r="M9" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="45">
+      <c r="G10" s="44">
         <v>2</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="44">
         <v>100</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <v>3</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="44">
         <v>4</v>
       </c>
-      <c r="K10" s="97">
+      <c r="K10" s="120">
         <v>6</v>
       </c>
-      <c r="L10" s="98"/>
-      <c r="M10" s="45" t="s">
-        <v>113</v>
+      <c r="L10" s="121"/>
+      <c r="M10" s="44" t="s">
+        <v>112</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="45">
+        <v>61</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="44">
         <v>2</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="44">
         <v>100</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <v>3</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="44">
         <v>4</v>
       </c>
-      <c r="K11" s="97">
+      <c r="K11" s="120">
         <v>6</v>
       </c>
-      <c r="L11" s="98"/>
-      <c r="M11" s="45" t="s">
-        <v>33</v>
+      <c r="L11" s="121"/>
+      <c r="M11" s="44" t="s">
+        <v>32</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="44">
+        <v>2</v>
+      </c>
+      <c r="H12" s="44">
+        <v>0</v>
+      </c>
+      <c r="I12" s="44">
+        <v>3</v>
+      </c>
+      <c r="J12" s="44">
+        <v>4</v>
+      </c>
+      <c r="K12" s="120">
+        <v>6</v>
+      </c>
+      <c r="L12" s="121"/>
+      <c r="M12" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="45">
-        <v>2</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="45">
-        <v>3</v>
-      </c>
-      <c r="J12" s="45">
-        <v>4</v>
-      </c>
-      <c r="K12" s="97">
-        <v>6</v>
-      </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="45" t="s">
-        <v>128</v>
-      </c>
       <c r="N12" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1">
       <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="105"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="15">
         <v>2</v>
@@ -3953,18 +4090,18 @@
       <c r="J13" s="15">
         <v>4</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="116">
         <v>6</v>
       </c>
-      <c r="L13" s="94"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1">
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
@@ -3979,9 +4116,9 @@
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
     </row>
-    <row r="15" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" ht="14.4" customHeight="1">
       <c r="B15" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
@@ -3991,102 +4128,102 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" ht="15" thickBot="1">
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="115" t="s">
+    <row r="17" spans="2:16" ht="15" thickTop="1">
+      <c r="C17" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="115" t="s">
+      <c r="I17" s="96"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="118"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="115" t="s">
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="98"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.4" customHeight="1">
+      <c r="B18" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="N17" s="118"/>
-      <c r="O17" s="116"/>
-      <c r="P17" s="117"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="112" t="s">
+      <c r="D18" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="E18" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="F18" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="G18" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="H18" s="111" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="120"/>
-      <c r="J18" s="113" t="s">
+      <c r="I18" s="112"/>
+      <c r="J18" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="113" t="s">
+      <c r="L18" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="114" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="N18" s="113" t="s">
+      <c r="M18" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="113" t="s">
+      <c r="P18" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="P18" s="114" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="111"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="121"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="114"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="109"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="93"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="93"/>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="24">
         <v>8</v>
@@ -4103,10 +4240,10 @@
       <c r="G20" s="32">
         <v>4</v>
       </c>
-      <c r="H20" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="110"/>
+      <c r="H20" s="107" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" s="108"/>
       <c r="J20" s="2">
         <v>4</v>
       </c>
@@ -4117,29 +4254,38 @@
         <v>0</v>
       </c>
       <c r="M20" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N20" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O20" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P20" s="27">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16">
       <c r="M21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F4:L4"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="C6:C13"/>
     <mergeCell ref="B4:B5"/>
@@ -4156,21 +4302,12 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F4:L4"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4179,12 +4316,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4332,15 +4466,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4364,10 +4502,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B0A340A-7B8D-463A-B976-63A023B5D9BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C125791C-CFF3-4EED-94B5-3CF568D8D264}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>